--- a/data/trans_orig/P34F1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34F1_2023-Provincia-trans_orig.xlsx
@@ -689,12 +689,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>32,42%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>44,54%</t>
+          <t>44,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -710,12 +710,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>30,34%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -731,12 +731,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>28,49%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>35,82%</t>
+          <t>35,65%</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -779,12 +779,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -800,12 +800,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,54%</t>
         </is>
       </c>
     </row>
@@ -827,12 +827,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>31,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,3%</t>
+          <t>43,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -848,12 +848,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>31,51%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>40,28%</t>
+          <t>40,52%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -869,7 +869,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>33,28%</t>
+          <t>33,2%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -917,12 +917,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -938,12 +938,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,27%</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -986,12 +986,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>17,32%</t>
         </is>
       </c>
     </row>
@@ -1034,12 +1034,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1055,12 +1055,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,52%</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>1,06%</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1214,12 +1214,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>9,36%</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>38,37%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>30,77%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>38,45%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>30,62%</t>
+          <t>31,02%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>37,06%</t>
+          <t>37,3%</t>
         </is>
       </c>
     </row>
@@ -1385,12 +1385,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1427,12 +1427,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,51%</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,86%</t>
+          <t>26,02%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>20,46%</t>
         </is>
       </c>
     </row>
@@ -1523,12 +1523,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1544,12 +1544,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>12,96%</t>
         </is>
       </c>
     </row>
@@ -1592,12 +1592,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1613,12 +1613,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1634,12 +1634,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>13,02%</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1661,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1703,12 +1703,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>7,95%</t>
         </is>
       </c>
     </row>
@@ -1730,12 +1730,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1751,12 +1751,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1772,12 +1772,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,81%</t>
         </is>
       </c>
     </row>
@@ -1799,12 +1799,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>24,37%</t>
+          <t>24,32%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>21,11%</t>
         </is>
       </c>
     </row>
@@ -1943,12 +1943,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>37,29%</t>
+          <t>37,39%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>47,94%</t>
+          <t>47,74%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>38,65%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>47,76%</t>
+          <t>47,91%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>39,45%</t>
+          <t>39,32%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>46,43%</t>
+          <t>46,64%</t>
         </is>
       </c>
     </row>
@@ -2012,12 +2012,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2081,12 +2081,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>9,88%</t>
         </is>
       </c>
     </row>
@@ -2150,12 +2150,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2192,12 +2192,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,12%</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2261,12 +2261,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>7,08%</t>
         </is>
       </c>
     </row>
@@ -2288,12 +2288,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
@@ -2309,12 +2309,12 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
@@ -2330,12 +2330,12 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>4,79%</t>
         </is>
       </c>
     </row>
@@ -2357,12 +2357,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
     </row>
@@ -2426,12 +2426,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>30,32%</t>
+          <t>30,36%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>41,43%</t>
+          <t>41,23%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>32,28%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2468,12 +2468,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>35,01%</t>
+          <t>34,95%</t>
         </is>
       </c>
     </row>
@@ -2570,12 +2570,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>43,4%</t>
+          <t>43,84%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>57,07%</t>
+          <t>57,82%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>34,05%</t>
+          <t>34,21%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>45,32%</t>
+          <t>45,4%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>40,12%</t>
+          <t>40,09%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>48,82%</t>
+          <t>49,26%</t>
         </is>
       </c>
     </row>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,79%</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>11,76%</t>
         </is>
       </c>
     </row>
@@ -2777,12 +2777,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2798,12 +2798,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,36%</t>
         </is>
       </c>
     </row>
@@ -2846,12 +2846,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2867,12 +2867,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2888,12 +2888,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,49%</t>
         </is>
       </c>
     </row>
@@ -2915,12 +2915,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -2957,12 +2957,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>13,61%</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3026,12 +3026,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,19%</t>
         </is>
       </c>
     </row>
@@ -3053,12 +3053,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>26,25%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>39,66%</t>
+          <t>39,65%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>33,11%</t>
+          <t>33,28%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3095,12 +3095,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
+          <t>33,49%</t>
         </is>
       </c>
     </row>
@@ -3197,12 +3197,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>78,76%</t>
+          <t>78,43%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>87,99%</t>
+          <t>88,46%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>85,62%</t>
+          <t>85,38%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3239,12 +3239,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>79,5%</t>
+          <t>79,83%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>85,7%</t>
+          <t>85,91%</t>
         </is>
       </c>
     </row>
@@ -3266,12 +3266,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3287,12 +3287,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3308,12 +3308,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>11,81%</t>
         </is>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3356,12 +3356,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3377,12 +3377,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,19%</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,17%</t>
         </is>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,46%</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="M45" s="2" t="n">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,73%</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,54%</t>
         </is>
       </c>
     </row>
@@ -3680,12 +3680,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3701,12 +3701,12 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,72%</t>
         </is>
       </c>
     </row>
@@ -3824,12 +3824,12 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>23,09%</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>32,84%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
@@ -3845,12 +3845,12 @@
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>24,75%</t>
         </is>
       </c>
       <c r="M49" s="2" t="n">
@@ -3866,12 +3866,12 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>27,42%</t>
         </is>
       </c>
     </row>
@@ -3893,12 +3893,12 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
@@ -3914,12 +3914,12 @@
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="M50" s="2" t="n">
@@ -3935,12 +3935,12 @@
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>7,32%</t>
         </is>
       </c>
     </row>
@@ -3962,12 +3962,12 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="H51" s="2" t="n">
@@ -3983,12 +3983,12 @@
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="M51" s="2" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>13,72%</t>
         </is>
       </c>
     </row>
@@ -4031,12 +4031,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="M52" s="2" t="n">
@@ -4073,12 +4073,12 @@
       </c>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,67%</t>
         </is>
       </c>
     </row>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
@@ -4121,12 +4121,12 @@
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="M53" s="2" t="n">
@@ -4142,12 +4142,12 @@
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>11,14%</t>
         </is>
       </c>
     </row>
@@ -4169,12 +4169,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
@@ -4190,12 +4190,12 @@
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="M54" s="2" t="n">
@@ -4211,12 +4211,12 @@
       </c>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>8,14%</t>
         </is>
       </c>
     </row>
@@ -4238,12 +4238,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
@@ -4259,12 +4259,12 @@
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="M55" s="2" t="n">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -4307,12 +4307,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>31,01%</t>
+          <t>31,22%</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>41,21%</t>
+          <t>41,75%</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
@@ -4328,12 +4328,12 @@
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>30,79%</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>40,6%</t>
         </is>
       </c>
       <c r="M56" s="2" t="n">
@@ -4349,12 +4349,12 @@
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>32,37%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
         <is>
-          <t>39,82%</t>
+          <t>39,74%</t>
         </is>
       </c>
     </row>
@@ -4451,12 +4451,12 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>52,49%</t>
+          <t>52,37%</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>61,28%</t>
+          <t>61,06%</t>
         </is>
       </c>
       <c r="H58" s="2" t="n">
@@ -4472,12 +4472,12 @@
       </c>
       <c r="K58" s="2" t="inlineStr">
         <is>
-          <t>45,84%</t>
+          <t>46,0%</t>
         </is>
       </c>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>73,07%</t>
+          <t>73,38%</t>
         </is>
       </c>
       <c r="M58" s="2" t="n">
@@ -4493,12 +4493,12 @@
       </c>
       <c r="P58" s="2" t="inlineStr">
         <is>
-          <t>50,74%</t>
+          <t>50,67%</t>
         </is>
       </c>
       <c r="Q58" s="2" t="inlineStr">
         <is>
-          <t>65,88%</t>
+          <t>67,62%</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="H59" s="2" t="n">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="K59" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="M59" s="2" t="n">
@@ -4562,12 +4562,12 @@
       </c>
       <c r="P59" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="Q59" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,53%</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4589,12 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="H60" s="2" t="n">
@@ -4610,12 +4610,12 @@
       </c>
       <c r="K60" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="M60" s="2" t="n">
@@ -4631,12 +4631,12 @@
       </c>
       <c r="P60" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="Q60" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>11,19%</t>
         </is>
       </c>
     </row>
@@ -4658,12 +4658,12 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="H61" s="2" t="n">
@@ -4679,12 +4679,12 @@
       </c>
       <c r="K61" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="M61" s="2" t="n">
@@ -4700,12 +4700,12 @@
       </c>
       <c r="P61" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="Q61" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,42%</t>
         </is>
       </c>
     </row>
@@ -4727,12 +4727,12 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="H62" s="2" t="n">
@@ -4748,12 +4748,12 @@
       </c>
       <c r="K62" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="M62" s="2" t="n">
@@ -4769,12 +4769,12 @@
       </c>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="Q62" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>6,72%</t>
         </is>
       </c>
     </row>
@@ -4796,12 +4796,12 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="H63" s="2" t="n">
@@ -4817,12 +4817,12 @@
       </c>
       <c r="K63" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="M63" s="2" t="n">
@@ -4838,12 +4838,12 @@
       </c>
       <c r="P63" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="Q63" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,5%</t>
         </is>
       </c>
     </row>
@@ -4865,12 +4865,12 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="H64" s="2" t="n">
@@ -4886,12 +4886,12 @@
       </c>
       <c r="K64" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="M64" s="2" t="n">
@@ -4907,12 +4907,12 @@
       </c>
       <c r="P64" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="Q64" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,43%</t>
         </is>
       </c>
     </row>
@@ -4934,12 +4934,12 @@
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="H65" s="2" t="n">
@@ -4955,12 +4955,12 @@
       </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="M65" s="2" t="n">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="P65" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="Q65" s="2" t="inlineStr">
@@ -5078,12 +5078,12 @@
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="H67" s="2" t="n">
@@ -5099,12 +5099,12 @@
       </c>
       <c r="K67" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>29,23%</t>
         </is>
       </c>
       <c r="M67" s="2" t="n">
@@ -5120,12 +5120,12 @@
       </c>
       <c r="P67" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="Q67" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>29,28%</t>
         </is>
       </c>
     </row>
@@ -5147,12 +5147,12 @@
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>41,24%</t>
+          <t>40,94%</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>57,17%</t>
+          <t>56,12%</t>
         </is>
       </c>
       <c r="H68" s="2" t="n">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="K68" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>32,09%</t>
         </is>
       </c>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>38,85%</t>
+          <t>38,54%</t>
         </is>
       </c>
       <c r="M68" s="2" t="n">
@@ -5189,12 +5189,12 @@
       </c>
       <c r="P68" s="2" t="inlineStr">
         <is>
-          <t>37,93%</t>
+          <t>37,88%</t>
         </is>
       </c>
       <c r="Q68" s="2" t="inlineStr">
         <is>
-          <t>47,58%</t>
+          <t>47,6%</t>
         </is>
       </c>
     </row>
@@ -5216,12 +5216,12 @@
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="H69" s="2" t="n">
@@ -5237,12 +5237,12 @@
       </c>
       <c r="K69" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="M69" s="2" t="n">
@@ -5258,12 +5258,12 @@
       </c>
       <c r="P69" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="Q69" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>11,32%</t>
         </is>
       </c>
     </row>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="H70" s="2" t="n">
@@ -5306,12 +5306,12 @@
       </c>
       <c r="K70" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="M70" s="2" t="n">
@@ -5327,12 +5327,12 @@
       </c>
       <c r="P70" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="Q70" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,44%</t>
         </is>
       </c>
     </row>
@@ -5354,12 +5354,12 @@
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="H71" s="2" t="n">
@@ -5375,12 +5375,12 @@
       </c>
       <c r="K71" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="M71" s="2" t="n">
@@ -5396,12 +5396,12 @@
       </c>
       <c r="P71" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="Q71" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,04%</t>
         </is>
       </c>
     </row>
@@ -5423,12 +5423,12 @@
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="H72" s="2" t="n">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="M72" s="2" t="n">
@@ -5465,12 +5465,12 @@
       </c>
       <c r="P72" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="Q72" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,88%</t>
         </is>
       </c>
     </row>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="H73" s="2" t="n">
@@ -5513,12 +5513,12 @@
       </c>
       <c r="K73" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="M73" s="2" t="n">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="Q73" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,88%</t>
         </is>
       </c>
     </row>
@@ -5561,12 +5561,12 @@
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="H74" s="2" t="n">
@@ -5582,12 +5582,12 @@
       </c>
       <c r="K74" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>21,31%</t>
         </is>
       </c>
       <c r="M74" s="2" t="n">
@@ -5603,12 +5603,12 @@
       </c>
       <c r="P74" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="Q74" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>18,22%</t>
         </is>
       </c>
     </row>
@@ -5705,12 +5705,12 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>39,22%</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>43,49%</t>
+          <t>43,52%</t>
         </is>
       </c>
       <c r="H76" s="2" t="n">
@@ -5726,12 +5726,12 @@
       </c>
       <c r="K76" s="2" t="inlineStr">
         <is>
-          <t>37,44%</t>
+          <t>37,12%</t>
         </is>
       </c>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>46,39%</t>
+          <t>46,32%</t>
         </is>
       </c>
       <c r="M76" s="2" t="n">
@@ -5747,12 +5747,12 @@
       </c>
       <c r="P76" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>38,77%</t>
         </is>
       </c>
       <c r="Q76" s="2" t="inlineStr">
         <is>
-          <t>44,13%</t>
+          <t>43,75%</t>
         </is>
       </c>
     </row>
@@ -5774,12 +5774,12 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="H77" s="2" t="n">
@@ -5795,12 +5795,12 @@
       </c>
       <c r="K77" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="M77" s="2" t="n">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="Q77" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>14,36%</t>
         </is>
       </c>
     </row>
@@ -5843,12 +5843,12 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="H78" s="2" t="n">
@@ -5864,12 +5864,12 @@
       </c>
       <c r="K78" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="M78" s="2" t="n">
@@ -5885,12 +5885,12 @@
       </c>
       <c r="P78" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="Q78" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>13,13%</t>
         </is>
       </c>
     </row>
@@ -5912,12 +5912,12 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="H79" s="2" t="n">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="K79" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="M79" s="2" t="n">
@@ -5954,12 +5954,12 @@
       </c>
       <c r="P79" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="Q79" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,21%</t>
         </is>
       </c>
     </row>
@@ -5981,12 +5981,12 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="H80" s="2" t="n">
@@ -6002,7 +6002,7 @@
       </c>
       <c r="K80" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="L80" s="2" t="inlineStr">
@@ -6023,12 +6023,12 @@
       </c>
       <c r="P80" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="Q80" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -6050,12 +6050,12 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="H81" s="2" t="n">
@@ -6071,12 +6071,12 @@
       </c>
       <c r="K81" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="M81" s="2" t="n">
@@ -6092,12 +6092,12 @@
       </c>
       <c r="P81" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="Q81" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,5%</t>
         </is>
       </c>
     </row>
@@ -6119,12 +6119,12 @@
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="H82" s="2" t="n">
@@ -6140,12 +6140,12 @@
       </c>
       <c r="K82" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="M82" s="2" t="n">
@@ -6161,12 +6161,12 @@
       </c>
       <c r="P82" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="Q82" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,67%</t>
         </is>
       </c>
     </row>
@@ -6188,12 +6188,12 @@
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="H83" s="2" t="n">
@@ -6209,12 +6209,12 @@
       </c>
       <c r="K83" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="M83" s="2" t="n">
@@ -6230,12 +6230,12 @@
       </c>
       <c r="P83" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="Q83" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>21,25%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P34F1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34F1_2023-Provincia-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -689,12 +689,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,42%</t>
+          <t>32,79%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>44,47%</t>
+          <t>44,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -710,12 +710,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>30,34%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -731,12 +731,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>35,65%</t>
+          <t>35,82%</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -779,12 +779,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -800,12 +800,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,57%</t>
         </is>
       </c>
     </row>
@@ -827,12 +827,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>30,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,84%</t>
+          <t>43,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -848,12 +848,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>31,51%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>40,52%</t>
+          <t>40,28%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -869,7 +869,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>33,28%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -917,12 +917,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -938,12 +938,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>6,25%</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -986,12 +986,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>17,31%</t>
         </is>
       </c>
     </row>
@@ -1034,12 +1034,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1055,12 +1055,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,51%</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>0,95%</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1214,12 +1214,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>9,29%</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>28,27%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>38,84%</t>
+          <t>38,37%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,77%</t>
+          <t>30,57%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>38,45%</t>
+          <t>38,44%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>30,62%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>37,3%</t>
+          <t>37,06%</t>
         </is>
       </c>
     </row>
@@ -1385,12 +1385,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1427,12 +1427,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,6%</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>20,34%</t>
         </is>
       </c>
     </row>
@@ -1523,12 +1523,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1544,12 +1544,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>12,79%</t>
         </is>
       </c>
     </row>
@@ -1592,12 +1592,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1613,12 +1613,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1634,12 +1634,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>12,8%</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1661,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1703,12 +1703,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>8,33%</t>
         </is>
       </c>
     </row>
@@ -1730,12 +1730,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1751,12 +1751,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1772,12 +1772,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,76%</t>
         </is>
       </c>
     </row>
@@ -1799,12 +1799,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>24,32%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>20,67%</t>
         </is>
       </c>
     </row>
@@ -1943,12 +1943,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>37,39%</t>
+          <t>37,29%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>47,74%</t>
+          <t>47,94%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>38,66%</t>
+          <t>38,65%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>47,91%</t>
+          <t>47,76%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>39,32%</t>
+          <t>39,45%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>46,64%</t>
+          <t>46,43%</t>
         </is>
       </c>
     </row>
@@ -2012,12 +2012,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2081,12 +2081,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>9,68%</t>
         </is>
       </c>
     </row>
@@ -2150,12 +2150,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2192,12 +2192,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,36%</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2261,12 +2261,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>6,98%</t>
         </is>
       </c>
     </row>
@@ -2288,12 +2288,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
@@ -2309,12 +2309,12 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
@@ -2330,12 +2330,12 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,94%</t>
         </is>
       </c>
     </row>
@@ -2357,12 +2357,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>3,0%</t>
         </is>
       </c>
     </row>
@@ -2426,12 +2426,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>30,32%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>41,23%</t>
+          <t>41,43%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>23,68%</t>
+          <t>24,18%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>32,28%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2468,12 +2468,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>27,8%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>34,95%</t>
+          <t>35,01%</t>
         </is>
       </c>
     </row>
@@ -2570,12 +2570,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>43,84%</t>
+          <t>43,4%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>57,82%</t>
+          <t>57,07%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>34,21%</t>
+          <t>34,05%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>45,32%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>40,12%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>49,26%</t>
+          <t>48,82%</t>
         </is>
       </c>
     </row>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,81%</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>11,77%</t>
         </is>
       </c>
     </row>
@@ -2777,12 +2777,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2798,12 +2798,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,3%</t>
         </is>
       </c>
     </row>
@@ -2846,12 +2846,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2867,12 +2867,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2888,12 +2888,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>7,61%</t>
         </is>
       </c>
     </row>
@@ -2915,12 +2915,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -2957,12 +2957,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>14,78%</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3026,12 +3026,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,18%</t>
         </is>
       </c>
     </row>
@@ -3053,12 +3053,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>25,81%</t>
+          <t>26,25%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>39,65%</t>
+          <t>39,66%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>21,2%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>33,28%</t>
+          <t>33,11%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3095,12 +3095,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>33,49%</t>
+          <t>33,86%</t>
         </is>
       </c>
     </row>
@@ -3197,12 +3197,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>78,43%</t>
+          <t>78,76%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>88,46%</t>
+          <t>87,99%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>85,38%</t>
+          <t>85,62%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3239,12 +3239,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>79,83%</t>
+          <t>79,5%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>85,91%</t>
+          <t>85,7%</t>
         </is>
       </c>
     </row>
@@ -3266,12 +3266,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3287,12 +3287,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3308,12 +3308,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>12,02%</t>
         </is>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3356,12 +3356,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3377,12 +3377,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,17%</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,43%</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="M45" s="2" t="n">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,7%</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,43%</t>
         </is>
       </c>
     </row>
@@ -3680,12 +3680,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3701,12 +3701,12 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>6,5%</t>
         </is>
       </c>
     </row>
@@ -3824,12 +3824,12 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>22,7%</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>32,84%</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
@@ -3845,12 +3845,12 @@
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="M49" s="2" t="n">
@@ -3866,12 +3866,12 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>27,46%</t>
         </is>
       </c>
     </row>
@@ -3893,12 +3893,12 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
@@ -3914,12 +3914,12 @@
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="M50" s="2" t="n">
@@ -3935,12 +3935,12 @@
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,28%</t>
         </is>
       </c>
     </row>
@@ -3962,12 +3962,12 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="H51" s="2" t="n">
@@ -3983,12 +3983,12 @@
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="M51" s="2" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>13,95%</t>
         </is>
       </c>
     </row>
@@ -4031,12 +4031,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="M52" s="2" t="n">
@@ -4073,12 +4073,12 @@
       </c>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>6,65%</t>
         </is>
       </c>
     </row>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
@@ -4121,12 +4121,12 @@
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="M53" s="2" t="n">
@@ -4142,12 +4142,12 @@
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>11,36%</t>
         </is>
       </c>
     </row>
@@ -4169,12 +4169,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
@@ -4190,12 +4190,12 @@
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="M54" s="2" t="n">
@@ -4211,12 +4211,12 @@
       </c>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>7,98%</t>
         </is>
       </c>
     </row>
@@ -4238,12 +4238,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
@@ -4259,12 +4259,12 @@
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="M55" s="2" t="n">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,79%</t>
         </is>
       </c>
     </row>
@@ -4307,12 +4307,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>31,22%</t>
+          <t>31,01%</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>41,75%</t>
+          <t>41,21%</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
@@ -4328,12 +4328,12 @@
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>30,79%</t>
+          <t>31,46%</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>40,6%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="M56" s="2" t="n">
@@ -4349,12 +4349,12 @@
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>32,56%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
         <is>
-          <t>39,74%</t>
+          <t>39,82%</t>
         </is>
       </c>
     </row>
@@ -4451,12 +4451,12 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>52,37%</t>
+          <t>52,49%</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>61,06%</t>
+          <t>61,28%</t>
         </is>
       </c>
       <c r="H58" s="2" t="n">
@@ -4472,12 +4472,12 @@
       </c>
       <c r="K58" s="2" t="inlineStr">
         <is>
-          <t>46,0%</t>
+          <t>45,84%</t>
         </is>
       </c>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>73,38%</t>
+          <t>73,07%</t>
         </is>
       </c>
       <c r="M58" s="2" t="n">
@@ -4493,12 +4493,12 @@
       </c>
       <c r="P58" s="2" t="inlineStr">
         <is>
-          <t>50,67%</t>
+          <t>50,74%</t>
         </is>
       </c>
       <c r="Q58" s="2" t="inlineStr">
         <is>
-          <t>67,62%</t>
+          <t>65,88%</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="H59" s="2" t="n">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="K59" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="M59" s="2" t="n">
@@ -4562,12 +4562,12 @@
       </c>
       <c r="P59" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="Q59" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,6%</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4589,12 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="H60" s="2" t="n">
@@ -4610,12 +4610,12 @@
       </c>
       <c r="K60" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="M60" s="2" t="n">
@@ -4631,12 +4631,12 @@
       </c>
       <c r="P60" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="Q60" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>11,15%</t>
         </is>
       </c>
     </row>
@@ -4658,12 +4658,12 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="H61" s="2" t="n">
@@ -4679,12 +4679,12 @@
       </c>
       <c r="K61" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="M61" s="2" t="n">
@@ -4700,12 +4700,12 @@
       </c>
       <c r="P61" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="Q61" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,44%</t>
         </is>
       </c>
     </row>
@@ -4727,12 +4727,12 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="H62" s="2" t="n">
@@ -4748,12 +4748,12 @@
       </c>
       <c r="K62" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="M62" s="2" t="n">
@@ -4769,12 +4769,12 @@
       </c>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="Q62" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>6,77%</t>
         </is>
       </c>
     </row>
@@ -4796,12 +4796,12 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="H63" s="2" t="n">
@@ -4817,12 +4817,12 @@
       </c>
       <c r="K63" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="M63" s="2" t="n">
@@ -4838,12 +4838,12 @@
       </c>
       <c r="P63" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="Q63" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,39%</t>
         </is>
       </c>
     </row>
@@ -4865,12 +4865,12 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="H64" s="2" t="n">
@@ -4886,12 +4886,12 @@
       </c>
       <c r="K64" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="M64" s="2" t="n">
@@ -4907,12 +4907,12 @@
       </c>
       <c r="P64" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="Q64" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,4%</t>
         </is>
       </c>
     </row>
@@ -4934,12 +4934,12 @@
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="H65" s="2" t="n">
@@ -4955,12 +4955,12 @@
       </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="M65" s="2" t="n">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="P65" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="Q65" s="2" t="inlineStr">
@@ -5078,12 +5078,12 @@
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>22,04%</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>31,5%</t>
+          <t>30,97%</t>
         </is>
       </c>
       <c r="H67" s="2" t="n">
@@ -5099,12 +5099,12 @@
       </c>
       <c r="K67" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>29,23%</t>
+          <t>29,21%</t>
         </is>
       </c>
       <c r="M67" s="2" t="n">
@@ -5120,12 +5120,12 @@
       </c>
       <c r="P67" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="Q67" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>29,14%</t>
         </is>
       </c>
     </row>
@@ -5147,12 +5147,12 @@
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>40,94%</t>
+          <t>41,24%</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>56,12%</t>
+          <t>57,17%</t>
         </is>
       </c>
       <c r="H68" s="2" t="n">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="K68" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>32,52%</t>
         </is>
       </c>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>38,54%</t>
+          <t>38,85%</t>
         </is>
       </c>
       <c r="M68" s="2" t="n">
@@ -5189,12 +5189,12 @@
       </c>
       <c r="P68" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>37,93%</t>
         </is>
       </c>
       <c r="Q68" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>47,58%</t>
         </is>
       </c>
     </row>
@@ -5216,12 +5216,12 @@
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="H69" s="2" t="n">
@@ -5237,12 +5237,12 @@
       </c>
       <c r="K69" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="M69" s="2" t="n">
@@ -5258,12 +5258,12 @@
       </c>
       <c r="P69" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="Q69" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>11,2%</t>
         </is>
       </c>
     </row>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="H70" s="2" t="n">
@@ -5306,12 +5306,12 @@
       </c>
       <c r="K70" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="M70" s="2" t="n">
@@ -5327,12 +5327,12 @@
       </c>
       <c r="P70" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="Q70" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,49%</t>
         </is>
       </c>
     </row>
@@ -5354,12 +5354,12 @@
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="H71" s="2" t="n">
@@ -5375,12 +5375,12 @@
       </c>
       <c r="K71" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="M71" s="2" t="n">
@@ -5396,12 +5396,12 @@
       </c>
       <c r="P71" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="Q71" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>4,07%</t>
         </is>
       </c>
     </row>
@@ -5423,12 +5423,12 @@
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="H72" s="2" t="n">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="M72" s="2" t="n">
@@ -5465,12 +5465,12 @@
       </c>
       <c r="P72" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="Q72" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,83%</t>
         </is>
       </c>
     </row>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="H73" s="2" t="n">
@@ -5513,12 +5513,12 @@
       </c>
       <c r="K73" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="M73" s="2" t="n">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="Q73" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,86%</t>
         </is>
       </c>
     </row>
@@ -5561,12 +5561,12 @@
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="H74" s="2" t="n">
@@ -5582,12 +5582,12 @@
       </c>
       <c r="K74" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="M74" s="2" t="n">
@@ -5603,12 +5603,12 @@
       </c>
       <c r="P74" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="Q74" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>18,33%</t>
         </is>
       </c>
     </row>
@@ -5705,12 +5705,12 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>39,22%</t>
+          <t>39,05%</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>43,52%</t>
+          <t>43,49%</t>
         </is>
       </c>
       <c r="H76" s="2" t="n">
@@ -5726,12 +5726,12 @@
       </c>
       <c r="K76" s="2" t="inlineStr">
         <is>
-          <t>37,12%</t>
+          <t>37,44%</t>
         </is>
       </c>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>46,32%</t>
+          <t>46,39%</t>
         </is>
       </c>
       <c r="M76" s="2" t="n">
@@ -5747,12 +5747,12 @@
       </c>
       <c r="P76" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>39,02%</t>
         </is>
       </c>
       <c r="Q76" s="2" t="inlineStr">
         <is>
-          <t>43,75%</t>
+          <t>44,13%</t>
         </is>
       </c>
     </row>
@@ -5774,12 +5774,12 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="H77" s="2" t="n">
@@ -5795,12 +5795,12 @@
       </c>
       <c r="K77" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="M77" s="2" t="n">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="Q77" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>14,42%</t>
         </is>
       </c>
     </row>
@@ -5843,12 +5843,12 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="H78" s="2" t="n">
@@ -5864,12 +5864,12 @@
       </c>
       <c r="K78" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="M78" s="2" t="n">
@@ -5885,12 +5885,12 @@
       </c>
       <c r="P78" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="Q78" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>13,1%</t>
         </is>
       </c>
     </row>
@@ -5912,12 +5912,12 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="H79" s="2" t="n">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="K79" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="M79" s="2" t="n">
@@ -5954,12 +5954,12 @@
       </c>
       <c r="P79" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="Q79" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,2%</t>
         </is>
       </c>
     </row>
@@ -5981,12 +5981,12 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="H80" s="2" t="n">
@@ -6002,7 +6002,7 @@
       </c>
       <c r="K80" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="L80" s="2" t="inlineStr">
@@ -6023,12 +6023,12 @@
       </c>
       <c r="P80" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="Q80" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,85%</t>
         </is>
       </c>
     </row>
@@ -6050,12 +6050,12 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="H81" s="2" t="n">
@@ -6071,12 +6071,12 @@
       </c>
       <c r="K81" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="M81" s="2" t="n">
@@ -6092,12 +6092,12 @@
       </c>
       <c r="P81" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="Q81" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,59%</t>
         </is>
       </c>
     </row>
@@ -6119,12 +6119,12 @@
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H82" s="2" t="n">
@@ -6140,12 +6140,12 @@
       </c>
       <c r="K82" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="M82" s="2" t="n">
@@ -6161,12 +6161,12 @@
       </c>
       <c r="P82" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="Q82" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -6188,12 +6188,12 @@
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="H83" s="2" t="n">
@@ -6209,12 +6209,12 @@
       </c>
       <c r="K83" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="M83" s="2" t="n">
@@ -6230,12 +6230,12 @@
       </c>
       <c r="P83" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="Q83" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>21,3%</t>
         </is>
       </c>
     </row>
